--- a/Jabar/Kaji Ulang Jabar/PERHITUNGAN/ENERGI DAN TRANSPORTASI/AKSI MITIGASI ENERGI + BIAYA 19 NOV.xlsx
+++ b/Jabar/Kaji Ulang Jabar/PERHITUNGAN/ENERGI DAN TRANSPORTASI/AKSI MITIGASI ENERGI + BIAYA 19 NOV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\System Dynamics\system_dynamics_reference\Jabar\Kaji Ulang Jabar\PERHITUNGAN\ENERGI DAN TRANSPORTASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\Jabar\Kaji Ulang Jabar\PERHITUNGAN\ENERGI DAN TRANSPORTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2DF554-5DA8-4876-B6C7-486144C351DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57CEB2-217C-470F-8C90-47C84AB040FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1440" windowWidth="21600" windowHeight="12585" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel lanscape+Hitungan biogas " sheetId="1" r:id="rId1"/>
@@ -790,6 +790,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="O65" authorId="1" shapeId="0" xr:uid="{8732230C-6794-41B7-BD6B-57043ABD0979}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cici:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Angka ini didapat dari profesional judgement, berdasarkan data pelaksanaan penggantian/pengadaan lampu PJU 2012-2015 (lihat tabel di samping). Dari tabel di samping, diperkirakan kecenderungan pengadana per tahunnya
+,</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -829,7 +854,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="496">
   <si>
     <t>Rencana Aksi Mitigasi Sub Sektor Pengadaan dan Penggunaan Energi</t>
   </si>
@@ -2570,6 +2595,9 @@
   <si>
     <t>Total Penurunan</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
@@ -6243,46 +6271,46 @@
                   <c:v>20708798.455222398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21940760.410263199</c:v>
+                  <c:v>21940849.299703199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23236015.807501201</c:v>
+                  <c:v>23236104.696941201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24307099.493897203</c:v>
+                  <c:v>24307188.383337203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25239389.284773204</c:v>
+                  <c:v>25239478.174213205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25939201.251409195</c:v>
+                  <c:v>25939290.140849195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26649049.196557201</c:v>
+                  <c:v>26649138.085997202</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28666313.125705197</c:v>
+                  <c:v>28666402.015145198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30625565.8820532</c:v>
+                  <c:v>30625654.7714932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32338941.363665197</c:v>
+                  <c:v>32339030.253105197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35985731.366805203</c:v>
+                  <c:v>35985820.256245203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39632521.369945206</c:v>
+                  <c:v>39632610.259385206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43279311.373085193</c:v>
+                  <c:v>43279400.262525193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46926101.376225203</c:v>
+                  <c:v>46926190.265665203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50572926.67936521</c:v>
+                  <c:v>50573015.56880521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9028,16 +9056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>382305</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3915</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50626</xdr:rowOff>
+      <xdr:rowOff>363777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>48278</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>301668</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>283141</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10944,8 +10972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12688,7 +12716,10 @@
       <c r="D22" s="636"/>
       <c r="E22" s="514"/>
       <c r="F22" s="514"/>
-      <c r="G22" s="514"/>
+      <c r="G22" s="514">
+        <f>G26-H26</f>
+        <v>567</v>
+      </c>
       <c r="H22" s="560"/>
       <c r="I22" s="514"/>
       <c r="J22" s="560"/>
@@ -13854,8 +13885,12 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O34" s="534">
-        <f t="shared" ref="O34:O50" si="22">((M34*N34)+(K34*21))/1000</f>
+        <f>((M34*N34)+(K34*21))/1000</f>
         <v>122.90319599999999</v>
+      </c>
+      <c r="P34" s="419">
+        <f>(M34*N34)/1000</f>
+        <v>-21.618803999999997</v>
       </c>
       <c r="R34" s="419">
         <v>2011</v>
@@ -13924,8 +13959,12 @@
         <v>1.58</v>
       </c>
       <c r="O35" s="534">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="O34:O50" si="22">((M35*N35)+(K35*21))/1000</f>
         <v>138.70832000000001</v>
+      </c>
+      <c r="P35" s="419">
+        <f>(M35*N35)/1000</f>
+        <v>-17.531680000000001</v>
       </c>
       <c r="R35" s="419">
         <v>2012</v>
@@ -13997,6 +14036,10 @@
         <f t="shared" si="22"/>
         <v>210.55888200000001</v>
       </c>
+      <c r="P36" s="419">
+        <f t="shared" ref="P36:P50" si="23">(M36*N36)/1000</f>
+        <v>48.459882000000007</v>
+      </c>
       <c r="R36" s="419">
         <v>2013</v>
       </c>
@@ -14067,6 +14110,10 @@
         <f t="shared" si="22"/>
         <v>238.46427600000001</v>
       </c>
+      <c r="P37" s="419">
+        <f t="shared" si="23"/>
+        <v>54.882276000000005</v>
+      </c>
       <c r="R37" s="419">
         <v>2014</v>
       </c>
@@ -14116,6 +14163,10 @@
         <f t="shared" si="22"/>
         <v>494.68653</v>
       </c>
+      <c r="P38" s="419">
+        <f t="shared" si="23"/>
+        <v>113.85153</v>
+      </c>
       <c r="R38" s="419">
         <v>2015</v>
       </c>
@@ -14165,6 +14216,10 @@
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
       </c>
+      <c r="P39" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
+      </c>
       <c r="R39" s="419">
         <v>2016</v>
       </c>
@@ -14214,6 +14269,10 @@
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
       </c>
+      <c r="P40" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
+      </c>
       <c r="R40" s="419">
         <v>2017</v>
       </c>
@@ -14232,7 +14291,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="507">
-        <f t="shared" ref="G41:G50" si="23">$N$26</f>
+        <f t="shared" ref="G41:G50" si="24">$N$26</f>
         <v>100</v>
       </c>
       <c r="H41" s="532">
@@ -14262,6 +14321,10 @@
       <c r="O41" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P41" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
       <c r="R41" s="419">
         <v>2018</v>
@@ -14281,7 +14344,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H42" s="532">
@@ -14311,6 +14374,10 @@
       <c r="O42" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P42" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
       <c r="R42" s="419">
         <v>2019</v>
@@ -14330,7 +14397,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H43" s="532">
@@ -14360,6 +14427,10 @@
       <c r="O43" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P43" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
       <c r="R43" s="419">
         <v>2020</v>
@@ -14379,7 +14450,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H44" s="532">
@@ -14409,6 +14480,10 @@
       <c r="O44" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P44" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
     </row>
     <row r="45" spans="2:42" s="419" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14422,7 +14497,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H45" s="532">
@@ -14452,6 +14527,10 @@
       <c r="O45" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P45" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
     </row>
     <row r="46" spans="2:42" s="419" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14465,7 +14544,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H46" s="532">
@@ -14495,6 +14574,10 @@
       <c r="O46" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P46" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
     </row>
     <row r="47" spans="2:42" s="419" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14508,7 +14591,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H47" s="532">
@@ -14538,6 +14621,10 @@
       <c r="O47" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P47" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
     </row>
     <row r="48" spans="2:42" s="419" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14551,7 +14638,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H48" s="532">
@@ -14581,6 +14668,10 @@
       <c r="O48" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P48" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
     </row>
     <row r="49" spans="1:31" s="419" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14594,7 +14685,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="507">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H49" s="532">
@@ -14624,6 +14715,10 @@
       <c r="O49" s="534">
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
+      </c>
+      <c r="P49" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
       </c>
     </row>
     <row r="50" spans="1:31" s="419" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14637,7 +14732,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="536">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="H50" s="537">
@@ -14668,6 +14763,10 @@
         <f t="shared" si="22"/>
         <v>253.68539999999999</v>
       </c>
+      <c r="P50" s="419">
+        <f t="shared" si="23"/>
+        <v>58.385400000000004</v>
+      </c>
     </row>
     <row r="51" spans="1:31" s="419" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="638">
@@ -14687,43 +14786,43 @@
         <v>0</v>
       </c>
       <c r="F51" s="531">
-        <f t="shared" ref="F51:O51" si="24">F56+F59</f>
+        <f t="shared" ref="F51:O51" si="25">F56+F59</f>
         <v>254</v>
       </c>
       <c r="G51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>255</v>
       </c>
       <c r="H51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>255</v>
       </c>
       <c r="I51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>256</v>
       </c>
       <c r="J51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>256</v>
       </c>
       <c r="K51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>257</v>
       </c>
       <c r="L51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>257</v>
       </c>
       <c r="M51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>258</v>
       </c>
       <c r="N51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>258</v>
       </c>
       <c r="O51" s="531">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>258</v>
       </c>
       <c r="Q51" s="641">
@@ -14733,50 +14832,50 @@
         <v>55</v>
       </c>
       <c r="S51" s="498" t="str">
-        <f t="shared" ref="S51:S53" si="25">C51</f>
+        <f t="shared" ref="S51:S53" si="26">C51</f>
         <v xml:space="preserve">Jumlah PJU dengan lampu LED </v>
       </c>
       <c r="T51" s="636" t="s">
         <v>462</v>
       </c>
       <c r="U51" s="531">
-        <f t="shared" ref="U51:AD52" si="26">U56+U59</f>
+        <f t="shared" ref="U51:AD52" si="27">U56+U59</f>
         <v>258</v>
       </c>
       <c r="V51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="W51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="X51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="Y51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="Z51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="AA51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="AB51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="AC51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="AD51" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="AE51" s="554" t="s">
@@ -14795,90 +14894,90 @@
         <v>0</v>
       </c>
       <c r="F52" s="540">
-        <f t="shared" ref="F52:O52" si="27">+F57+F60</f>
+        <f t="shared" ref="F52:O52" si="28">+F57+F60</f>
         <v>428400</v>
       </c>
       <c r="G52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>430200</v>
       </c>
       <c r="H52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>430200</v>
       </c>
       <c r="I52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>432000</v>
       </c>
       <c r="J52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>432000</v>
       </c>
       <c r="K52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>433000</v>
       </c>
       <c r="L52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>433000</v>
       </c>
       <c r="M52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>434800</v>
       </c>
       <c r="N52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>434800</v>
       </c>
       <c r="O52" s="540">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>434800</v>
       </c>
       <c r="Q52" s="641"/>
       <c r="R52" s="637"/>
       <c r="S52" s="528" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Indikasi Pembiayaan (Ribu Rupiah)</v>
       </c>
       <c r="T52" s="636"/>
       <c r="U52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="V52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="W52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="X52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="Y52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="Z52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="AA52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="AB52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="AC52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
       <c r="AD52" s="531">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>434800</v>
       </c>
     </row>
@@ -14925,7 +15024,7 @@
       <c r="Q53" s="641"/>
       <c r="R53" s="637"/>
       <c r="S53" s="558" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Penurunan Emisi (ton CO2eq)</v>
       </c>
       <c r="T53" s="636"/>
@@ -15048,7 +15147,7 @@
         <v>55</v>
       </c>
       <c r="S56" s="92" t="str">
-        <f t="shared" ref="S56:S58" si="28">C56</f>
+        <f t="shared" ref="S56:S58" si="29">C56</f>
         <v>Jumlah PJU dengan lampu LED (JALAN UMUM)</v>
       </c>
       <c r="T56" s="288" t="s">
@@ -15101,86 +15200,86 @@
         <v>392400</v>
       </c>
       <c r="G57" s="279">
-        <f t="shared" ref="G57:O57" si="29">1800*G56</f>
+        <f t="shared" ref="G57:O57" si="30">1800*G56</f>
         <v>394200</v>
       </c>
       <c r="H57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>394200</v>
       </c>
       <c r="I57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>396000</v>
       </c>
       <c r="J57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>396000</v>
       </c>
       <c r="K57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>396000</v>
       </c>
       <c r="L57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>396000</v>
       </c>
       <c r="M57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>397800</v>
       </c>
       <c r="N57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>397800</v>
       </c>
       <c r="O57" s="279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>397800</v>
       </c>
       <c r="Q57" s="285"/>
       <c r="R57" s="287"/>
       <c r="S57" s="221" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>Indikasi Pembiayaan (Ribu Rupiah)</v>
       </c>
       <c r="T57" s="288"/>
       <c r="U57" s="220">
-        <f t="shared" ref="U57" si="30">1800*U56</f>
+        <f t="shared" ref="U57" si="31">1800*U56</f>
         <v>397800</v>
       </c>
       <c r="V57" s="220">
-        <f t="shared" ref="V57" si="31">1800*V56</f>
+        <f t="shared" ref="V57" si="32">1800*V56</f>
         <v>397800</v>
       </c>
       <c r="W57" s="220">
-        <f t="shared" ref="W57" si="32">1800*W56</f>
+        <f t="shared" ref="W57" si="33">1800*W56</f>
         <v>397800</v>
       </c>
       <c r="X57" s="220">
-        <f t="shared" ref="X57" si="33">1800*X56</f>
+        <f t="shared" ref="X57" si="34">1800*X56</f>
         <v>397800</v>
       </c>
       <c r="Y57" s="220">
-        <f t="shared" ref="Y57" si="34">1800*Y56</f>
+        <f t="shared" ref="Y57" si="35">1800*Y56</f>
         <v>397800</v>
       </c>
       <c r="Z57" s="220">
-        <f t="shared" ref="Z57" si="35">1800*Z56</f>
+        <f t="shared" ref="Z57" si="36">1800*Z56</f>
         <v>397800</v>
       </c>
       <c r="AA57" s="220">
-        <f t="shared" ref="AA57" si="36">1800*AA56</f>
+        <f t="shared" ref="AA57" si="37">1800*AA56</f>
         <v>397800</v>
       </c>
       <c r="AB57" s="220">
-        <f t="shared" ref="AB57" si="37">1800*AB56</f>
+        <f t="shared" ref="AB57" si="38">1800*AB56</f>
         <v>397800</v>
       </c>
       <c r="AC57" s="220">
-        <f t="shared" ref="AC57" si="38">1800*AC56</f>
+        <f t="shared" ref="AC57" si="39">1800*AC56</f>
         <v>397800</v>
       </c>
       <c r="AD57" s="220">
-        <f t="shared" ref="AD57" si="39">1800*AD56</f>
+        <f t="shared" ref="AD57" si="40">1800*AD56</f>
         <v>397800</v>
       </c>
     </row>
@@ -15227,7 +15326,7 @@
       <c r="Q58" s="285"/>
       <c r="R58" s="287"/>
       <c r="S58" s="92" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>Penurunan Emisi (ton CO2eq)</v>
       </c>
       <c r="T58" s="288"/>
@@ -15315,7 +15414,7 @@
         <v>55</v>
       </c>
       <c r="S59" s="92" t="str">
-        <f t="shared" ref="S59:S61" si="40">C59</f>
+        <f t="shared" ref="S59:S61" si="41">C59</f>
         <v>Jumlah PJU dengan lampu LED (JALAN LINGKUNGAN)</v>
       </c>
       <c r="T59" s="288" t="s">
@@ -15368,23 +15467,23 @@
         <v>36000</v>
       </c>
       <c r="G60" s="279">
-        <f t="shared" ref="G60:O60" si="41">1000*G59</f>
+        <f t="shared" ref="G60:O60" si="42">1000*G59</f>
         <v>36000</v>
       </c>
       <c r="H60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>36000</v>
       </c>
       <c r="I60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>36000</v>
       </c>
       <c r="J60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>36000</v>
       </c>
       <c r="K60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37000</v>
       </c>
       <c r="L60" s="279">
@@ -15392,62 +15491,62 @@
         <v>37000</v>
       </c>
       <c r="M60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37000</v>
       </c>
       <c r="N60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37000</v>
       </c>
       <c r="O60" s="279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37000</v>
       </c>
       <c r="Q60" s="285"/>
       <c r="R60" s="287"/>
       <c r="S60" s="221" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Indikasi Pembiayaan (Ribu Rupiah)</v>
       </c>
       <c r="T60" s="288"/>
       <c r="U60" s="220">
-        <f t="shared" ref="U60" si="42">1000*U59</f>
+        <f t="shared" ref="U60" si="43">1000*U59</f>
         <v>37000</v>
       </c>
       <c r="V60" s="220">
-        <f t="shared" ref="V60" si="43">1000*V59</f>
+        <f t="shared" ref="V60" si="44">1000*V59</f>
         <v>37000</v>
       </c>
       <c r="W60" s="220">
-        <f t="shared" ref="W60" si="44">1000*W59</f>
+        <f t="shared" ref="W60" si="45">1000*W59</f>
         <v>37000</v>
       </c>
       <c r="X60" s="220">
-        <f t="shared" ref="X60" si="45">1000*X59</f>
+        <f t="shared" ref="X60" si="46">1000*X59</f>
         <v>37000</v>
       </c>
       <c r="Y60" s="220">
-        <f t="shared" ref="Y60" si="46">1000*Y59</f>
+        <f t="shared" ref="Y60" si="47">1000*Y59</f>
         <v>37000</v>
       </c>
       <c r="Z60" s="220">
-        <f t="shared" ref="Z60" si="47">1000*Z59</f>
+        <f t="shared" ref="Z60" si="48">1000*Z59</f>
         <v>37000</v>
       </c>
       <c r="AA60" s="220">
-        <f t="shared" ref="AA60" si="48">1000*AA59</f>
+        <f t="shared" ref="AA60" si="49">1000*AA59</f>
         <v>37000</v>
       </c>
       <c r="AB60" s="220">
-        <f t="shared" ref="AB60" si="49">1000*AB59</f>
+        <f t="shared" ref="AB60" si="50">1000*AB59</f>
         <v>37000</v>
       </c>
       <c r="AC60" s="220">
-        <f t="shared" ref="AC60" si="50">1000*AC59</f>
+        <f t="shared" ref="AC60" si="51">1000*AC59</f>
         <v>37000</v>
       </c>
       <c r="AD60" s="220">
-        <f t="shared" ref="AD60" si="51">1000*AD59</f>
+        <f t="shared" ref="AD60" si="52">1000*AD59</f>
         <v>37000</v>
       </c>
     </row>
@@ -15494,7 +15593,7 @@
       <c r="Q61" s="285"/>
       <c r="R61" s="287"/>
       <c r="S61" s="92" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Penurunan Emisi (ton CO2eq)</v>
       </c>
       <c r="T61" s="288"/>
@@ -15561,43 +15660,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="F64" s="602" t="e">
-        <f t="shared" ref="F64:O64" si="52">F7+F10+F13+F19+F22+F25</f>
+        <f t="shared" ref="F64:O64" si="53">F7+F10+F13+F19+F22+F25</f>
         <v>#VALUE!</v>
       </c>
       <c r="G64" s="602" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" s="602" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="602" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="602" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="K64" s="602" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="L64" s="602">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>144257.33582399995</v>
       </c>
       <c r="M64" s="602">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>77094.917599999986</v>
       </c>
       <c r="N64" s="602" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="O64" s="602">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>659991.50495999993</v>
       </c>
     </row>
@@ -15767,7 +15866,7 @@
         <v>246</v>
       </c>
       <c r="E73" s="658">
-        <f t="shared" ref="E73" si="53">F73*4</f>
+        <f t="shared" ref="E73" si="54">F73*4</f>
         <v>1132</v>
       </c>
       <c r="F73" s="661">
@@ -15840,7 +15939,7 @@
         <v>246</v>
       </c>
       <c r="E76" s="658">
-        <f t="shared" ref="E76" si="54">F76*4</f>
+        <f t="shared" ref="E76" si="55">F76*4</f>
         <v>2868</v>
       </c>
       <c r="F76" s="661">
@@ -15913,7 +16012,7 @@
         <v>246</v>
       </c>
       <c r="E79" s="658">
-        <f t="shared" ref="E79" si="55">F79*4</f>
+        <f t="shared" ref="E79" si="56">F79*4</f>
         <v>600</v>
       </c>
       <c r="F79" s="661">
@@ -15986,7 +16085,7 @@
         <v>246</v>
       </c>
       <c r="E82" s="658">
-        <f t="shared" ref="E82" si="56">F82*4</f>
+        <f t="shared" ref="E82" si="57">F82*4</f>
         <v>296</v>
       </c>
       <c r="F82" s="661">
@@ -16059,7 +16158,7 @@
         <v>246</v>
       </c>
       <c r="E85" s="658">
-        <f t="shared" ref="E85" si="57">F85*4</f>
+        <f t="shared" ref="E85" si="58">F85*4</f>
         <v>320</v>
       </c>
       <c r="F85" s="661">
@@ -16132,7 +16231,7 @@
         <v>246</v>
       </c>
       <c r="E88" s="658">
-        <f t="shared" ref="E88" si="58">F88*4</f>
+        <f t="shared" ref="E88" si="59">F88*4</f>
         <v>332</v>
       </c>
       <c r="F88" s="670">
@@ -16205,7 +16304,7 @@
         <v>246</v>
       </c>
       <c r="E91" s="658">
-        <f t="shared" ref="E91" si="59">F91*4</f>
+        <f t="shared" ref="E91" si="60">F91*4</f>
         <v>376</v>
       </c>
       <c r="F91" s="670">
@@ -16278,7 +16377,7 @@
         <v>246</v>
       </c>
       <c r="E94" s="658">
-        <f t="shared" ref="E94" si="60">F94*4</f>
+        <f t="shared" ref="E94" si="61">F94*4</f>
         <v>780</v>
       </c>
       <c r="F94" s="670">
@@ -16351,7 +16450,7 @@
         <v>246</v>
       </c>
       <c r="E97" s="658">
-        <f t="shared" ref="E97" si="61">F97*4</f>
+        <f t="shared" ref="E97" si="62">F97*4</f>
         <v>400</v>
       </c>
       <c r="F97" s="670">
@@ -16554,7 +16653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:M7"/>
     </sheetView>
   </sheetViews>
@@ -16907,8 +17006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18704,7 +18803,7 @@
       <c r="H48" s="291"/>
       <c r="I48" s="291"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="242">
         <f t="shared" si="6"/>
         <v>2029</v>
@@ -18732,7 +18831,7 @@
       <c r="H49" s="291"/>
       <c r="I49" s="291"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="242">
         <f t="shared" si="6"/>
         <v>2030</v>
@@ -18760,7 +18859,7 @@
       <c r="H50" s="291"/>
       <c r="I50" s="291"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="242"/>
       <c r="B51" s="242">
         <f>SUM(B31:B38)</f>
@@ -18786,7 +18885,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="735" t="s">
         <v>296</v>
       </c>
@@ -18801,7 +18900,7 @@
       <c r="J55" s="736"/>
       <c r="K55" s="736"/>
     </row>
-    <row r="56" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A56" s="206" t="s">
         <v>107</v>
       </c>
@@ -18842,7 +18941,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="270" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="270" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="214">
         <v>1</v>
       </c>
@@ -18890,8 +18989,14 @@
         <f>L57*K57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P57" s="213">
+        <v>2010</v>
+      </c>
+      <c r="Q57" s="270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="254">
         <f>A57+1</f>
         <v>2</v>
@@ -18940,8 +19045,14 @@
         <f>L58*K58</f>
         <v>49.38432479999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P58" s="262">
+        <v>2011</v>
+      </c>
+      <c r="Q58" s="119">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="254">
         <f t="shared" ref="A59:A77" si="13">A58+1</f>
         <v>3</v>
@@ -18991,8 +19102,15 @@
         <f t="shared" ref="M59:M65" si="17">L59*K59</f>
         <v>49.610858399999984</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P59" s="262">
+        <f>P58+1</f>
+        <v>2012</v>
+      </c>
+      <c r="Q59" s="119">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="254">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -19042,8 +19160,15 @@
         <f t="shared" si="17"/>
         <v>49.610858399999984</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P60" s="262">
+        <f t="shared" ref="P60:P77" si="19">P59+1</f>
+        <v>2013</v>
+      </c>
+      <c r="Q60" s="119">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="254">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -19093,8 +19218,15 @@
         <f t="shared" si="17"/>
         <v>49.83739199999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P61" s="262">
+        <f t="shared" si="19"/>
+        <v>2014</v>
+      </c>
+      <c r="Q61" s="119">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="254">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -19144,8 +19276,15 @@
         <f t="shared" si="17"/>
         <v>49.83739199999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P62" s="262">
+        <f t="shared" si="19"/>
+        <v>2015</v>
+      </c>
+      <c r="Q62" s="119">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="254">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -19195,8 +19334,15 @@
         <f t="shared" si="17"/>
         <v>49.83739199999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P63" s="262">
+        <f t="shared" si="19"/>
+        <v>2016</v>
+      </c>
+      <c r="Q63" s="119">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="254">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -19246,8 +19392,15 @@
         <f t="shared" si="17"/>
         <v>49.83739199999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P64" s="262">
+        <f t="shared" si="19"/>
+        <v>2017</v>
+      </c>
+      <c r="Q64" s="119">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="254">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -19297,14 +19450,21 @@
         <f t="shared" si="17"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P65" s="262">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
+      <c r="Q65" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="254">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="B66" s="262">
-        <f t="shared" ref="B66:B77" si="19">B65+1</f>
+        <f t="shared" ref="B66:B77" si="20">B65+1</f>
         <v>2019</v>
       </c>
       <c r="C66" s="255" t="s">
@@ -19322,7 +19482,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G66" s="258">
-        <f t="shared" ref="G66:G77" si="20">E66-F66</f>
+        <f t="shared" ref="G66:G77" si="21">E66-F66</f>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H66" s="449">
@@ -19345,17 +19505,24 @@
         <v>221</v>
       </c>
       <c r="M66" s="443">
-        <f t="shared" ref="M66:M77" si="21">L66*K66</f>
+        <f t="shared" ref="M66:M77" si="22">L66*K66</f>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P66" s="262">
+        <f t="shared" si="19"/>
+        <v>2019</v>
+      </c>
+      <c r="Q66" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="254">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="B67" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2020</v>
       </c>
       <c r="C67" s="255" t="s">
@@ -19373,7 +19540,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G67" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H67" s="449">
@@ -19396,17 +19563,24 @@
         <v>221</v>
       </c>
       <c r="M67" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P67" s="262">
+        <f t="shared" si="19"/>
+        <v>2020</v>
+      </c>
+      <c r="Q67" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="254">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="B68" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2021</v>
       </c>
       <c r="C68" s="255" t="s">
@@ -19424,7 +19598,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G68" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H68" s="449">
@@ -19447,17 +19621,24 @@
         <v>221</v>
       </c>
       <c r="M68" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P68" s="262">
+        <f t="shared" si="19"/>
+        <v>2021</v>
+      </c>
+      <c r="Q68" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="254">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="B69" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2022</v>
       </c>
       <c r="C69" s="255" t="s">
@@ -19475,7 +19656,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G69" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H69" s="449">
@@ -19498,17 +19679,24 @@
         <v>221</v>
       </c>
       <c r="M69" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P69" s="262">
+        <f t="shared" si="19"/>
+        <v>2022</v>
+      </c>
+      <c r="Q69" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="254">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="B70" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2023</v>
       </c>
       <c r="C70" s="255" t="s">
@@ -19526,7 +19714,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G70" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H70" s="449">
@@ -19549,17 +19737,24 @@
         <v>221</v>
       </c>
       <c r="M70" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P70" s="262">
+        <f t="shared" si="19"/>
+        <v>2023</v>
+      </c>
+      <c r="Q70" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="254">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="B71" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2024</v>
       </c>
       <c r="C71" s="255" t="s">
@@ -19577,7 +19772,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G71" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H71" s="449">
@@ -19600,17 +19795,24 @@
         <v>221</v>
       </c>
       <c r="M71" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P71" s="262">
+        <f t="shared" si="19"/>
+        <v>2024</v>
+      </c>
+      <c r="Q71" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="254">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="B72" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2025</v>
       </c>
       <c r="C72" s="255" t="s">
@@ -19628,7 +19830,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G72" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H72" s="449">
@@ -19651,17 +19853,24 @@
         <v>221</v>
       </c>
       <c r="M72" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P72" s="262">
+        <f t="shared" si="19"/>
+        <v>2025</v>
+      </c>
+      <c r="Q72" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="254">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="B73" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2026</v>
       </c>
       <c r="C73" s="255" t="s">
@@ -19679,7 +19888,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G73" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H73" s="449">
@@ -19702,17 +19911,24 @@
         <v>221</v>
       </c>
       <c r="M73" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P73" s="262">
+        <f t="shared" si="19"/>
+        <v>2026</v>
+      </c>
+      <c r="Q73" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="254">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="B74" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2027</v>
       </c>
       <c r="C74" s="255" t="s">
@@ -19730,7 +19946,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G74" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H74" s="449">
@@ -19753,17 +19969,24 @@
         <v>221</v>
       </c>
       <c r="M74" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P74" s="262">
+        <f t="shared" si="19"/>
+        <v>2027</v>
+      </c>
+      <c r="Q74" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="254">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="B75" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2028</v>
       </c>
       <c r="C75" s="255" t="s">
@@ -19781,7 +20004,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G75" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H75" s="449">
@@ -19804,17 +20027,24 @@
         <v>221</v>
       </c>
       <c r="M75" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P75" s="262">
+        <f t="shared" si="19"/>
+        <v>2028</v>
+      </c>
+      <c r="Q75" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="254">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B76" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2029</v>
       </c>
       <c r="C76" s="255" t="s">
@@ -19832,7 +20062,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G76" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H76" s="449">
@@ -19855,17 +20085,24 @@
         <v>221</v>
       </c>
       <c r="M76" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P76" s="262">
+        <f t="shared" si="19"/>
+        <v>2029</v>
+      </c>
+      <c r="Q76" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="254">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="B77" s="262">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2030</v>
       </c>
       <c r="C77" s="255" t="s">
@@ -19883,7 +20120,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="G77" s="258">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9999999999999981E-5</v>
       </c>
       <c r="H77" s="449">
@@ -19906,11 +20143,18 @@
         <v>221</v>
       </c>
       <c r="M77" s="443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.063925599999983</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P77" s="262">
+        <f t="shared" si="19"/>
+        <v>2030</v>
+      </c>
+      <c r="Q77" s="119">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="735" t="s">
         <v>297</v>
       </c>
@@ -19925,7 +20169,7 @@
       <c r="J79" s="736"/>
       <c r="K79" s="736"/>
     </row>
-    <row r="80" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="206" t="s">
         <v>107</v>
       </c>
@@ -19966,7 +20210,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="214">
         <v>1</v>
       </c>
@@ -20007,15 +20251,21 @@
         <v>0.15102240000000003</v>
       </c>
       <c r="L81" s="269">
-        <f t="shared" ref="L81:L101" si="22">F30</f>
+        <f t="shared" ref="L81:L101" si="23">F30</f>
         <v>0</v>
       </c>
       <c r="M81" s="442">
-        <f t="shared" ref="M81:M101" si="23">L81*K81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M81:M101" si="24">L81*K81</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="213">
+        <v>2010</v>
+      </c>
+      <c r="Q81" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="254">
         <f>A81+1</f>
         <v>2</v>
@@ -20030,44 +20280,50 @@
         <v>294</v>
       </c>
       <c r="E82" s="268">
-        <f t="shared" ref="E82:E101" si="24">$C$24/1000000</f>
+        <f t="shared" ref="E82:E101" si="25">$C$24/1000000</f>
         <v>1E-4</v>
       </c>
       <c r="F82" s="268">
-        <f t="shared" ref="F82:F101" si="25">$D$24/1000000</f>
+        <f t="shared" ref="F82:F101" si="26">$D$24/1000000</f>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G82" s="212">
-        <f t="shared" ref="G82:G101" si="26">E82-F82</f>
+        <f t="shared" ref="G82:G101" si="27">E82-F82</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H82" s="449">
-        <f t="shared" ref="H82:H101" si="27">0.5*365*24</f>
+        <f t="shared" ref="H82:H101" si="28">0.5*365*24</f>
         <v>4380</v>
       </c>
       <c r="I82" s="270">
-        <f t="shared" ref="I82:I101" si="28">G82*H82</f>
+        <f t="shared" ref="I82:I101" si="29">G82*H82</f>
         <v>0.17520000000000002</v>
       </c>
       <c r="J82" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K82" s="213">
-        <f t="shared" ref="K82:K101" si="29">I82*J82</f>
+        <f t="shared" ref="K82:K101" si="30">I82*J82</f>
         <v>0.15102240000000003</v>
       </c>
       <c r="L82" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="M82" s="442">
         <f>L82*K82</f>
         <v>5.4368064000000009</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P82" s="262">
+        <v>2011</v>
+      </c>
+      <c r="Q82" s="119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="254">
-        <f t="shared" ref="A83:A101" si="30">A82+1</f>
+        <f t="shared" ref="A83:A101" si="31">A82+1</f>
         <v>3</v>
       </c>
       <c r="B83" s="262">
@@ -20081,48 +20337,55 @@
         <v>294</v>
       </c>
       <c r="E83" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F83" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G83" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H83" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I83" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J83" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K83" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L83" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="M83" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.4368064000000009</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P83" s="262">
+        <f>P82+1</f>
+        <v>2012</v>
+      </c>
+      <c r="Q83" s="119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="B84" s="262">
-        <f t="shared" ref="B84:B101" si="31">B83+1</f>
+        <f t="shared" ref="B84:B101" si="32">B83+1</f>
         <v>2013</v>
       </c>
       <c r="C84" s="255" t="s">
@@ -20132,48 +20395,55 @@
         <v>294</v>
       </c>
       <c r="E84" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F84" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G84" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H84" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I84" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J84" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K84" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L84" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="M84" s="442">
         <f>L84*K84</f>
         <v>5.4368064000000009</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P84" s="262">
+        <f t="shared" ref="P84:P101" si="33">P83+1</f>
+        <v>2013</v>
+      </c>
+      <c r="Q84" s="119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="B85" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2014</v>
       </c>
       <c r="C85" s="255" t="s">
@@ -20183,48 +20453,55 @@
         <v>294</v>
       </c>
       <c r="E85" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F85" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G85" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H85" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I85" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J85" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K85" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L85" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="M85" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.4368064000000009</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P85" s="262">
+        <f t="shared" si="33"/>
+        <v>2014</v>
+      </c>
+      <c r="Q85" s="119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="B86" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2015</v>
       </c>
       <c r="C86" s="255" t="s">
@@ -20234,48 +20511,55 @@
         <v>294</v>
       </c>
       <c r="E86" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F86" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G86" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H86" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I86" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J86" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K86" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L86" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="M86" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.4368064000000009</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P86" s="262">
+        <f t="shared" si="33"/>
+        <v>2015</v>
+      </c>
+      <c r="Q86" s="119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="B87" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2016</v>
       </c>
       <c r="C87" s="255" t="s">
@@ -20285,48 +20569,55 @@
         <v>294</v>
       </c>
       <c r="E87" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F87" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G87" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H87" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I87" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J87" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K87" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L87" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M87" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P87" s="262">
+        <f t="shared" si="33"/>
+        <v>2016</v>
+      </c>
+      <c r="Q87" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="B88" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2017</v>
       </c>
       <c r="C88" s="255" t="s">
@@ -20336,48 +20627,55 @@
         <v>294</v>
       </c>
       <c r="E88" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F88" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G88" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H88" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I88" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J88" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K88" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L88" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M88" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P88" s="262">
+        <f t="shared" si="33"/>
+        <v>2017</v>
+      </c>
+      <c r="Q88" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="B89" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2018</v>
       </c>
       <c r="C89" s="255" t="s">
@@ -20387,48 +20685,55 @@
         <v>294</v>
       </c>
       <c r="E89" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F89" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G89" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H89" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I89" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J89" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K89" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L89" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M89" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P89" s="262">
+        <f t="shared" si="33"/>
+        <v>2018</v>
+      </c>
+      <c r="Q89" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="B90" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2019</v>
       </c>
       <c r="C90" s="255" t="s">
@@ -20438,48 +20743,55 @@
         <v>294</v>
       </c>
       <c r="E90" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F90" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G90" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H90" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I90" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J90" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K90" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L90" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M90" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P90" s="262">
+        <f t="shared" si="33"/>
+        <v>2019</v>
+      </c>
+      <c r="Q90" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="B91" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2020</v>
       </c>
       <c r="C91" s="255" t="s">
@@ -20489,48 +20801,55 @@
         <v>294</v>
       </c>
       <c r="E91" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F91" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G91" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H91" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I91" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J91" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K91" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L91" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M91" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P91" s="262">
+        <f t="shared" si="33"/>
+        <v>2020</v>
+      </c>
+      <c r="Q91" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="B92" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2021</v>
       </c>
       <c r="C92" s="255" t="s">
@@ -20540,48 +20859,55 @@
         <v>294</v>
       </c>
       <c r="E92" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F92" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G92" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H92" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I92" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J92" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K92" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L92" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M92" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P92" s="262">
+        <f t="shared" si="33"/>
+        <v>2021</v>
+      </c>
+      <c r="Q92" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="B93" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2022</v>
       </c>
       <c r="C93" s="255" t="s">
@@ -20591,48 +20917,55 @@
         <v>294</v>
       </c>
       <c r="E93" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F93" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G93" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H93" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I93" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J93" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K93" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L93" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M93" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P93" s="262">
+        <f t="shared" si="33"/>
+        <v>2022</v>
+      </c>
+      <c r="Q93" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="B94" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2023</v>
       </c>
       <c r="C94" s="255" t="s">
@@ -20642,48 +20975,55 @@
         <v>294</v>
       </c>
       <c r="E94" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F94" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G94" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H94" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I94" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J94" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K94" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L94" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M94" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P94" s="262">
+        <f t="shared" si="33"/>
+        <v>2023</v>
+      </c>
+      <c r="Q94" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="B95" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2024</v>
       </c>
       <c r="C95" s="255" t="s">
@@ -20693,48 +21033,55 @@
         <v>294</v>
       </c>
       <c r="E95" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F95" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G95" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H95" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I95" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J95" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K95" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L95" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M95" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P95" s="262">
+        <f t="shared" si="33"/>
+        <v>2024</v>
+      </c>
+      <c r="Q95" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="B96" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2025</v>
       </c>
       <c r="C96" s="255" t="s">
@@ -20744,48 +21091,55 @@
         <v>294</v>
       </c>
       <c r="E96" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F96" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G96" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H96" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I96" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J96" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K96" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L96" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M96" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P96" s="262">
+        <f t="shared" si="33"/>
+        <v>2025</v>
+      </c>
+      <c r="Q96" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="B97" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2026</v>
       </c>
       <c r="C97" s="255" t="s">
@@ -20795,48 +21149,55 @@
         <v>294</v>
       </c>
       <c r="E97" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F97" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G97" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H97" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I97" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J97" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K97" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L97" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M97" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P97" s="262">
+        <f t="shared" si="33"/>
+        <v>2026</v>
+      </c>
+      <c r="Q97" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="B98" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2027</v>
       </c>
       <c r="C98" s="255" t="s">
@@ -20846,48 +21207,55 @@
         <v>294</v>
       </c>
       <c r="E98" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F98" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G98" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H98" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I98" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J98" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K98" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L98" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M98" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P98" s="262">
+        <f t="shared" si="33"/>
+        <v>2027</v>
+      </c>
+      <c r="Q98" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="B99" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2028</v>
       </c>
       <c r="C99" s="255" t="s">
@@ -20897,48 +21265,55 @@
         <v>294</v>
       </c>
       <c r="E99" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F99" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G99" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H99" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I99" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J99" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K99" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L99" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M99" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P99" s="262">
+        <f t="shared" si="33"/>
+        <v>2028</v>
+      </c>
+      <c r="Q99" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="B100" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2029</v>
       </c>
       <c r="C100" s="255" t="s">
@@ -20948,48 +21323,55 @@
         <v>294</v>
       </c>
       <c r="E100" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F100" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G100" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H100" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I100" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J100" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K100" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L100" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M100" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P100" s="262">
+        <f t="shared" si="33"/>
+        <v>2029</v>
+      </c>
+      <c r="Q100" s="119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="254">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="B101" s="262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2030</v>
       </c>
       <c r="C101" s="255" t="s">
@@ -20999,39 +21381,46 @@
         <v>294</v>
       </c>
       <c r="E101" s="268">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E-4</v>
       </c>
       <c r="F101" s="268">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G101" s="212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H101" s="449">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4380</v>
       </c>
       <c r="I101" s="270">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17520000000000002</v>
       </c>
       <c r="J101" s="257">
         <v>0.86199999999999999</v>
       </c>
       <c r="K101" s="213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15102240000000003</v>
       </c>
       <c r="L101" s="269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="M101" s="442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5878288000000014</v>
+      </c>
+      <c r="P101" s="262">
+        <f t="shared" si="33"/>
+        <v>2030</v>
+      </c>
+      <c r="Q101" s="119">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -21082,8 +21471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K53" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23157,7 +23546,7 @@
       <c r="R62" s="291"/>
       <c r="T62" s="454"/>
     </row>
-    <row r="63" spans="2:20" s="119" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" s="119" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="447">
         <f t="shared" ref="B63:B83" si="13">L4</f>
         <v>2010</v>
@@ -23197,8 +23586,12 @@
         <f>18000000/1000*I63</f>
         <v>0</v>
       </c>
-      <c r="N63" s="291"/>
-      <c r="O63" s="291"/>
+      <c r="N63" s="291">
+        <v>2010</v>
+      </c>
+      <c r="O63" s="81">
+        <v>0</v>
+      </c>
       <c r="P63" s="291"/>
       <c r="Q63" s="291"/>
       <c r="R63" s="291"/>
@@ -23244,8 +23637,12 @@
         <f t="shared" ref="L64:L83" si="16">18000000/1000*I64</f>
         <v>540000</v>
       </c>
-      <c r="N64" s="291"/>
-      <c r="O64" s="291"/>
+      <c r="N64" s="291">
+        <v>2011</v>
+      </c>
+      <c r="O64" s="81">
+        <v>30</v>
+      </c>
       <c r="P64" s="291"/>
       <c r="Q64" s="291"/>
       <c r="R64" s="291"/>
@@ -23291,8 +23688,12 @@
         <f t="shared" si="16"/>
         <v>900000</v>
       </c>
-      <c r="N65" s="291"/>
-      <c r="O65" s="291"/>
+      <c r="N65" s="291">
+        <v>2012</v>
+      </c>
+      <c r="O65" s="251">
+        <v>50</v>
+      </c>
       <c r="P65" s="291"/>
       <c r="Q65" s="291"/>
       <c r="R65" s="291"/>
@@ -23338,8 +23739,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N66" s="291"/>
-      <c r="O66" s="291"/>
+      <c r="N66" s="291">
+        <v>2013</v>
+      </c>
+      <c r="O66" s="251">
+        <v>60</v>
+      </c>
       <c r="P66" s="291"/>
       <c r="Q66" s="291"/>
       <c r="R66" s="291"/>
@@ -23385,8 +23790,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N67" s="291"/>
-      <c r="O67" s="291"/>
+      <c r="N67" s="291">
+        <v>2014</v>
+      </c>
+      <c r="O67" s="251">
+        <v>60</v>
+      </c>
       <c r="P67" s="291"/>
       <c r="Q67" s="291"/>
       <c r="R67" s="291"/>
@@ -23432,8 +23841,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N68" s="291"/>
-      <c r="O68" s="291"/>
+      <c r="N68" s="291">
+        <v>2015</v>
+      </c>
+      <c r="O68" s="251">
+        <v>60</v>
+      </c>
       <c r="P68" s="291"/>
       <c r="Q68" s="291"/>
       <c r="R68" s="291"/>
@@ -23479,8 +23892,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N69" s="291"/>
-      <c r="O69" s="291"/>
+      <c r="N69" s="291">
+        <v>2016</v>
+      </c>
+      <c r="O69" s="251">
+        <v>60</v>
+      </c>
       <c r="P69" s="291"/>
       <c r="Q69" s="291"/>
       <c r="R69" s="291"/>
@@ -23526,8 +23943,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N70" s="291"/>
-      <c r="O70" s="291"/>
+      <c r="N70" s="291">
+        <v>2017</v>
+      </c>
+      <c r="O70" s="251">
+        <v>60</v>
+      </c>
       <c r="P70" s="291"/>
       <c r="Q70" s="291"/>
       <c r="R70" s="291"/>
@@ -23573,8 +23994,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N71" s="291"/>
-      <c r="O71" s="291"/>
+      <c r="N71" s="291">
+        <v>2018</v>
+      </c>
+      <c r="O71" s="251">
+        <v>60</v>
+      </c>
       <c r="P71" s="291"/>
       <c r="Q71" s="291"/>
       <c r="R71" s="291"/>
@@ -23620,8 +24045,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N72" s="291"/>
-      <c r="O72" s="291"/>
+      <c r="N72" s="291">
+        <v>2019</v>
+      </c>
+      <c r="O72" s="251">
+        <v>60</v>
+      </c>
       <c r="P72" s="291"/>
       <c r="Q72" s="291"/>
       <c r="R72" s="291"/>
@@ -23667,8 +24096,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N73" s="291"/>
-      <c r="O73" s="291"/>
+      <c r="N73" s="291">
+        <v>2020</v>
+      </c>
+      <c r="O73" s="251">
+        <v>60</v>
+      </c>
       <c r="P73" s="291"/>
       <c r="Q73" s="291"/>
       <c r="R73" s="291"/>
@@ -23714,8 +24147,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N74" s="291"/>
-      <c r="O74" s="291"/>
+      <c r="N74" s="291">
+        <v>2021</v>
+      </c>
+      <c r="O74" s="251">
+        <v>60</v>
+      </c>
       <c r="P74" s="291"/>
       <c r="Q74" s="291"/>
       <c r="R74" s="291"/>
@@ -23761,8 +24198,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N75" s="291"/>
-      <c r="O75" s="291"/>
+      <c r="N75" s="291">
+        <v>2022</v>
+      </c>
+      <c r="O75" s="251">
+        <v>60</v>
+      </c>
       <c r="P75" s="291"/>
       <c r="Q75" s="291"/>
       <c r="R75" s="291"/>
@@ -23808,8 +24249,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N76" s="291"/>
-      <c r="O76" s="291"/>
+      <c r="N76" s="291">
+        <v>2023</v>
+      </c>
+      <c r="O76" s="251">
+        <v>60</v>
+      </c>
       <c r="P76" s="291"/>
       <c r="Q76" s="291"/>
       <c r="R76" s="291"/>
@@ -23855,8 +24300,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N77" s="291"/>
-      <c r="O77" s="291"/>
+      <c r="N77" s="291">
+        <v>2024</v>
+      </c>
+      <c r="O77" s="251">
+        <v>60</v>
+      </c>
       <c r="P77" s="291"/>
       <c r="Q77" s="291"/>
       <c r="R77" s="291"/>
@@ -23902,8 +24351,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N78" s="291"/>
-      <c r="O78" s="291"/>
+      <c r="N78" s="291">
+        <v>2025</v>
+      </c>
+      <c r="O78" s="251">
+        <v>60</v>
+      </c>
       <c r="P78" s="291"/>
       <c r="Q78" s="291"/>
       <c r="R78" s="291"/>
@@ -23949,8 +24402,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N79" s="291"/>
-      <c r="O79" s="291"/>
+      <c r="N79" s="291">
+        <v>2026</v>
+      </c>
+      <c r="O79" s="251">
+        <v>60</v>
+      </c>
       <c r="P79" s="291"/>
       <c r="Q79" s="291"/>
       <c r="R79" s="291"/>
@@ -23996,8 +24453,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N80" s="291"/>
-      <c r="O80" s="291"/>
+      <c r="N80" s="291">
+        <v>2027</v>
+      </c>
+      <c r="O80" s="251">
+        <v>60</v>
+      </c>
       <c r="P80" s="291"/>
       <c r="Q80" s="291"/>
       <c r="R80" s="291"/>
@@ -24043,8 +24504,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N81" s="291"/>
-      <c r="O81" s="291"/>
+      <c r="N81" s="291">
+        <v>2028</v>
+      </c>
+      <c r="O81" s="251">
+        <v>60</v>
+      </c>
       <c r="P81" s="291"/>
       <c r="Q81" s="291"/>
       <c r="R81" s="291"/>
@@ -24090,8 +24555,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N82" s="291"/>
-      <c r="O82" s="291"/>
+      <c r="N82" s="291">
+        <v>2029</v>
+      </c>
+      <c r="O82" s="251">
+        <v>60</v>
+      </c>
       <c r="P82" s="291"/>
       <c r="Q82" s="291"/>
       <c r="R82" s="291"/>
@@ -24137,8 +24606,12 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-      <c r="N83" s="291"/>
-      <c r="O83" s="291"/>
+      <c r="N83" s="291">
+        <v>2030</v>
+      </c>
+      <c r="O83" s="251">
+        <v>60</v>
+      </c>
       <c r="P83" s="291"/>
       <c r="Q83" s="291"/>
       <c r="R83" s="291"/>
@@ -34682,8 +35155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B25"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35679,7 +36152,7 @@
       <c r="S12" s="283"/>
       <c r="T12" s="283">
         <f>'HIT HIBRID ROOFTOP'!J8</f>
-        <v>90.613439999999997</v>
+        <v>1.724</v>
       </c>
       <c r="U12" s="283"/>
       <c r="V12" s="283"/>
@@ -35707,22 +36180,22 @@
       </c>
       <c r="AC12" s="304">
         <f t="shared" si="4"/>
-        <v>148096.48133519993</v>
+        <v>148007.59189519993</v>
       </c>
       <c r="AD12" s="327">
         <f t="shared" si="2"/>
-        <v>148.09648133519994</v>
+        <v>148.00759189519994</v>
       </c>
       <c r="AE12" s="322">
         <f t="shared" si="5"/>
-        <v>502594.95352879982</v>
+        <v>502506.06408879987</v>
       </c>
       <c r="AF12" s="323">
         <v>22443355.363791998</v>
       </c>
       <c r="AG12" s="334">
         <f t="shared" si="3"/>
-        <v>21940760.410263199</v>
+        <v>21940849.299703199</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -35810,14 +36283,14 @@
       </c>
       <c r="AE13" s="322">
         <f t="shared" si="5"/>
-        <v>587397.99266679981</v>
+        <v>587309.10322679987</v>
       </c>
       <c r="AF13" s="323">
         <v>23823413.800168</v>
       </c>
       <c r="AG13" s="334">
         <f t="shared" si="3"/>
-        <v>23236015.807501201</v>
+        <v>23236104.696941201</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -35913,14 +36386,14 @@
       </c>
       <c r="AE14" s="322">
         <f t="shared" si="5"/>
-        <v>896372.74264679977</v>
+        <v>896283.85320679983</v>
       </c>
       <c r="AF14" s="323">
         <v>25203472.236544002</v>
       </c>
       <c r="AG14" s="334">
         <f t="shared" si="3"/>
-        <v>24307099.493897203</v>
+        <v>24307188.383337203</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -36021,14 +36494,14 @@
       </c>
       <c r="AE15" s="322">
         <f t="shared" si="5"/>
-        <v>1344141.3881467998</v>
+        <v>1344052.4987067997</v>
       </c>
       <c r="AF15" s="324">
         <v>26583530.672920004</v>
       </c>
       <c r="AG15" s="334">
         <f t="shared" si="3"/>
-        <v>25239389.284773204</v>
+        <v>25239478.174213205</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -36129,14 +36602,14 @@
       </c>
       <c r="AE16" s="322">
         <f t="shared" si="5"/>
-        <v>2817463.4587347996</v>
+        <v>2817374.5692947996</v>
       </c>
       <c r="AF16" s="323">
         <v>28756664.710143995</v>
       </c>
       <c r="AG16" s="334">
         <f t="shared" si="3"/>
-        <v>25939201.251409195</v>
+        <v>25939290.140849195</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
@@ -36232,14 +36705,14 @@
       </c>
       <c r="AE17" s="322">
         <f t="shared" si="5"/>
-        <v>4172408.1032747994</v>
+        <v>4172319.2138347994</v>
       </c>
       <c r="AF17" s="323">
         <v>30821457.299832001</v>
       </c>
       <c r="AG17" s="334">
         <f t="shared" si="3"/>
-        <v>26649049.196557201</v>
+        <v>26649138.085997202</v>
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
@@ -36334,14 +36807,14 @@
       </c>
       <c r="AE18" s="322">
         <f t="shared" si="5"/>
-        <v>4219936.7638147995</v>
+        <v>4219847.8743747994</v>
       </c>
       <c r="AF18" s="323">
         <v>32886249.889519997</v>
       </c>
       <c r="AG18" s="334">
         <f t="shared" si="3"/>
-        <v>28666313.125705197</v>
+        <v>28666402.015145198</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
@@ -36431,14 +36904,14 @@
       </c>
       <c r="AE19" s="322">
         <f t="shared" si="5"/>
-        <v>4325476.5971547998</v>
+        <v>4325387.7077147998</v>
       </c>
       <c r="AF19" s="323">
         <v>34951042.479208</v>
       </c>
       <c r="AG19" s="334">
         <f t="shared" si="3"/>
-        <v>30625565.8820532</v>
+        <v>30625654.7714932</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
@@ -36533,14 +37006,14 @@
       </c>
       <c r="AE20" s="322">
         <f t="shared" si="5"/>
-        <v>4373005.2576947995</v>
+        <v>4372916.3682547994</v>
       </c>
       <c r="AF20" s="323">
         <v>36711946.621359996</v>
       </c>
       <c r="AG20" s="334">
         <f t="shared" si="3"/>
-        <v>32338941.363665197</v>
+        <v>32339030.253105197</v>
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
@@ -36630,14 +37103,14 @@
       </c>
       <c r="AE21" s="322">
         <f t="shared" si="5"/>
-        <v>4377241.9982347991</v>
+        <v>4377153.1087947991</v>
       </c>
       <c r="AF21" s="323">
         <v>40362973.365040004</v>
       </c>
       <c r="AG21" s="334">
         <f t="shared" si="3"/>
-        <v>35985731.366805203</v>
+        <v>35985820.256245203</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
@@ -36727,14 +37200,14 @@
       </c>
       <c r="AE22" s="322">
         <f t="shared" si="5"/>
-        <v>4381478.7387747988</v>
+        <v>4381389.8493347988</v>
       </c>
       <c r="AF22" s="323">
         <v>44014000.108720005</v>
       </c>
       <c r="AG22" s="334">
         <f t="shared" si="3"/>
-        <v>39632521.369945206</v>
+        <v>39632610.259385206</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
@@ -36824,14 +37297,14 @@
       </c>
       <c r="AE23" s="322">
         <f t="shared" si="5"/>
-        <v>4385715.4793147985</v>
+        <v>4385626.5898747984</v>
       </c>
       <c r="AF23" s="323">
         <v>47665026.85239999</v>
       </c>
       <c r="AG23" s="334">
         <f t="shared" si="3"/>
-        <v>43279311.373085193</v>
+        <v>43279400.262525193</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
@@ -36921,14 +37394,14 @@
       </c>
       <c r="AE24" s="322">
         <f t="shared" si="5"/>
-        <v>4389952.2198547982</v>
+        <v>4389863.3304147981</v>
       </c>
       <c r="AF24" s="323">
         <v>51316053.596080005</v>
       </c>
       <c r="AG24" s="334">
         <f t="shared" si="3"/>
-        <v>46926101.376225203</v>
+        <v>46926190.265665203</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37018,14 +37491,14 @@
       </c>
       <c r="AE25" s="325">
         <f>AE24+AC25</f>
-        <v>4394153.660394798</v>
+        <v>4394064.770954798</v>
       </c>
       <c r="AF25" s="326">
         <v>54967080.339760005</v>
       </c>
       <c r="AG25" s="335">
         <f t="shared" si="3"/>
-        <v>50572926.67936521</v>
+        <v>50573015.56880521</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="32.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -37060,7 +37533,7 @@
       </c>
       <c r="T26" s="318">
         <f t="shared" ref="T26:AB26" si="6">SUM(T5:T25)</f>
-        <v>2700.2805119999998</v>
+        <v>2611.3910719999999</v>
       </c>
       <c r="U26" s="318"/>
       <c r="V26" s="318"/>
@@ -37090,14 +37563,14 @@
       </c>
       <c r="AC26" s="319">
         <f t="shared" si="4"/>
-        <v>1445355.4523947998</v>
+        <v>1445266.5629547997</v>
       </c>
       <c r="AE26" s="333" t="s">
         <v>325</v>
       </c>
       <c r="AF26" s="583">
         <f>AE25/AF25</f>
-        <v>7.9941551074458675E-2</v>
+        <v>7.9939933934900773E-2</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
@@ -38731,7 +39204,7 @@
       </c>
       <c r="AM38" s="302">
         <f t="shared" si="31"/>
-        <v>90.613439999999997</v>
+        <v>1.724</v>
       </c>
       <c r="AN38" s="338">
         <f t="shared" si="32"/>
@@ -38771,7 +39244,7 @@
       </c>
       <c r="AW38" s="342">
         <f t="shared" si="27"/>
-        <v>502594.95352879993</v>
+        <v>502506.06408879993</v>
       </c>
       <c r="AX38" s="343">
         <f t="shared" si="28"/>
@@ -38893,7 +39366,7 @@
       </c>
       <c r="AM39" s="302">
         <f t="shared" si="31"/>
-        <v>90.613439999999997</v>
+        <v>1.724</v>
       </c>
       <c r="AN39" s="338">
         <f t="shared" si="32"/>
@@ -38933,7 +39406,7 @@
       </c>
       <c r="AW39" s="342">
         <f t="shared" si="27"/>
-        <v>587397.99266679992</v>
+        <v>587309.10322679987</v>
       </c>
       <c r="AX39" s="343">
         <f t="shared" si="28"/>
@@ -39069,7 +39542,7 @@
       </c>
       <c r="AM40" s="302">
         <f t="shared" si="31"/>
-        <v>308.08569599999998</v>
+        <v>219.19625599999998</v>
       </c>
       <c r="AN40" s="338">
         <f t="shared" si="32"/>
@@ -39109,7 +39582,7 @@
       </c>
       <c r="AW40" s="342">
         <f t="shared" si="27"/>
-        <v>772681.54264679994</v>
+        <v>772592.65320679988</v>
       </c>
       <c r="AX40" s="343">
         <f t="shared" si="28"/>
@@ -39247,7 +39720,7 @@
       </c>
       <c r="AM41" s="302">
         <f t="shared" si="31"/>
-        <v>525.557952</v>
+        <v>436.66851199999996</v>
       </c>
       <c r="AN41" s="338">
         <f t="shared" si="32"/>
@@ -39287,7 +39760,7 @@
       </c>
       <c r="AW41" s="342">
         <f t="shared" si="27"/>
-        <v>1096758.9881468001</v>
+        <v>1096670.0987068003</v>
       </c>
       <c r="AX41" s="343">
         <f t="shared" si="28"/>
@@ -39413,7 +39886,7 @@
       </c>
       <c r="AM42" s="302">
         <f t="shared" si="31"/>
-        <v>743.03020800000002</v>
+        <v>654.14076799999998</v>
       </c>
       <c r="AN42" s="338">
         <f t="shared" si="32"/>
@@ -39453,7 +39926,7 @@
       </c>
       <c r="AW42" s="342">
         <f t="shared" si="27"/>
-        <v>1219373.1547347999</v>
+        <v>1219284.2652947998</v>
       </c>
       <c r="AX42" s="343">
         <f t="shared" si="28"/>
@@ -39577,7 +40050,7 @@
       </c>
       <c r="AM43" s="302">
         <f t="shared" si="31"/>
-        <v>960.50246400000003</v>
+        <v>871.613024</v>
       </c>
       <c r="AN43" s="338">
         <f t="shared" si="32"/>
@@ -39617,7 +40090,7 @@
       </c>
       <c r="AW43" s="342">
         <f t="shared" si="27"/>
-        <v>1223609.8952747998</v>
+        <v>1223521.0058348</v>
       </c>
       <c r="AX43" s="343">
         <f t="shared" si="28"/>
@@ -39743,7 +40216,7 @@
       </c>
       <c r="AM44" s="302">
         <f t="shared" si="31"/>
-        <v>1177.9747199999999</v>
+        <v>1089.08528</v>
       </c>
       <c r="AN44" s="338">
         <f t="shared" si="32"/>
@@ -39783,7 +40256,7 @@
       </c>
       <c r="AW44" s="342">
         <f t="shared" si="27"/>
-        <v>1271138.5558148001</v>
+        <v>1271049.6663748</v>
       </c>
       <c r="AX44" s="343">
         <f t="shared" si="28"/>
@@ -39907,7 +40380,7 @@
       </c>
       <c r="AM45" s="302">
         <f t="shared" si="31"/>
-        <v>1395.4469759999999</v>
+        <v>1306.557536</v>
       </c>
       <c r="AN45" s="338">
         <f t="shared" si="32"/>
@@ -39947,7 +40420,7 @@
       </c>
       <c r="AW45" s="342">
         <f t="shared" si="27"/>
-        <v>1376678.3891548</v>
+        <v>1376589.4997147999</v>
       </c>
       <c r="AX45" s="343">
         <f t="shared" si="28"/>
@@ -40073,7 +40546,7 @@
       </c>
       <c r="AM46" s="302">
         <f t="shared" si="31"/>
-        <v>1612.919232</v>
+        <v>1524.029792</v>
       </c>
       <c r="AN46" s="338">
         <f t="shared" si="32"/>
@@ -40113,7 +40586,7 @@
       </c>
       <c r="AW46" s="342">
         <f t="shared" si="27"/>
-        <v>1424207.0496947996</v>
+        <v>1424118.1602547998</v>
       </c>
       <c r="AX46" s="343">
         <f t="shared" si="28"/>
@@ -40237,7 +40710,7 @@
       </c>
       <c r="AM47" s="302">
         <f t="shared" si="31"/>
-        <v>1830.391488</v>
+        <v>1741.5020480000001</v>
       </c>
       <c r="AN47" s="338">
         <f t="shared" si="32"/>
@@ -40277,7 +40750,7 @@
       </c>
       <c r="AW47" s="342">
         <f t="shared" si="27"/>
-        <v>1428443.7902347997</v>
+        <v>1428354.9007947997</v>
       </c>
       <c r="AX47" s="343">
         <f t="shared" si="28"/>
@@ -40401,7 +40874,7 @@
       </c>
       <c r="AM48" s="302">
         <f t="shared" si="31"/>
-        <v>2047.863744</v>
+        <v>1958.9743040000001</v>
       </c>
       <c r="AN48" s="338">
         <f t="shared" si="32"/>
@@ -40441,7 +40914,7 @@
       </c>
       <c r="AW48" s="342">
         <f t="shared" si="27"/>
-        <v>1432680.5307747996</v>
+        <v>1432591.6413347996</v>
       </c>
       <c r="AX48" s="343">
         <f t="shared" si="28"/>
@@ -40565,7 +41038,7 @@
       </c>
       <c r="AM49" s="302">
         <f t="shared" si="31"/>
-        <v>2265.3359999999998</v>
+        <v>2176.4465599999999</v>
       </c>
       <c r="AN49" s="338">
         <f t="shared" si="32"/>
@@ -40605,7 +41078,7 @@
       </c>
       <c r="AW49" s="342">
         <f t="shared" si="27"/>
-        <v>1436917.2713147998</v>
+        <v>1436828.3818748</v>
       </c>
       <c r="AX49" s="343">
         <f t="shared" si="28"/>
@@ -40729,7 +41202,7 @@
       </c>
       <c r="AM50" s="302">
         <f t="shared" si="31"/>
-        <v>2482.8082559999998</v>
+        <v>2393.9188159999999</v>
       </c>
       <c r="AN50" s="338">
         <f t="shared" si="32"/>
@@ -40769,7 +41242,7 @@
       </c>
       <c r="AW50" s="342">
         <f t="shared" si="27"/>
-        <v>1441154.0118547999</v>
+        <v>1441065.1224147999</v>
       </c>
       <c r="AX50" s="343">
         <f t="shared" si="28"/>
@@ -40893,7 +41366,7 @@
       </c>
       <c r="AM51" s="302">
         <f t="shared" si="31"/>
-        <v>2700.2805119999998</v>
+        <v>2611.3910719999999</v>
       </c>
       <c r="AN51" s="338">
         <f t="shared" si="32"/>
@@ -40933,7 +41406,7 @@
       </c>
       <c r="AW51" s="342">
         <f>AG51+AI51+AK51+AM51+AO51+AQ51+AS51+AU51</f>
-        <v>1445355.4523947998</v>
+        <v>1445266.5629547997</v>
       </c>
       <c r="AX51" s="343">
         <f t="shared" si="28"/>
@@ -40961,7 +41434,7 @@
       <c r="AL52" s="671"/>
       <c r="AM52" s="671">
         <f>AN51/AM51</f>
-        <v>7912.1237608665169</v>
+        <v>8181.4454483973977</v>
       </c>
       <c r="AN52" s="671"/>
       <c r="AO52" s="671">
@@ -40986,7 +41459,7 @@
       <c r="AV52" s="671"/>
       <c r="AW52" s="672">
         <f>AX51/AW51</f>
-        <v>65582.911009431293</v>
+        <v>65586.944610140417</v>
       </c>
       <c r="AX52" s="672"/>
     </row>
@@ -41391,7 +41864,7 @@
       <c r="D62" s="369"/>
       <c r="E62" s="369">
         <f>T38/T12</f>
-        <v>10649.122249414657</v>
+        <v>559717.86542923434</v>
       </c>
       <c r="F62" s="369"/>
       <c r="G62" s="369"/>
@@ -42222,8 +42695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42305,15 +42778,14 @@
         <v>1752</v>
       </c>
       <c r="H8" s="109">
-        <f t="shared" ref="H8" si="0">F8*G8</f>
-        <v>105.11999999999999</v>
+        <v>2</v>
       </c>
       <c r="I8" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J8" s="495">
-        <f t="shared" ref="J8" si="1">H8*I8</f>
-        <v>90.613439999999997</v>
+        <f t="shared" ref="J8" si="0">H8*I8</f>
+        <v>1.724</v>
       </c>
       <c r="L8">
         <f>F8*1000</f>
@@ -42330,22 +42802,22 @@
         <v>0</v>
       </c>
       <c r="F9" s="496">
-        <f t="shared" ref="F9:F21" si="2">E9*5/1000</f>
+        <f t="shared" ref="F9:F21" si="1">E9*5/1000</f>
         <v>0</v>
       </c>
       <c r="G9" s="109">
-        <f t="shared" ref="G9:G21" si="3">0.2*365*24</f>
+        <f t="shared" ref="G9:G21" si="2">0.2*365*24</f>
         <v>1752</v>
       </c>
       <c r="H9" s="109">
-        <f t="shared" ref="H9:H21" si="4">F9*G9</f>
+        <f t="shared" ref="H9:H21" si="3">F9*G9</f>
         <v>0</v>
       </c>
       <c r="I9" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J9" s="495">
-        <f t="shared" ref="J9:J21" si="5">H9*I9</f>
+        <f t="shared" ref="J9:J21" si="4">H9*I9</f>
         <v>0</v>
       </c>
       <c r="K9">
@@ -42355,7 +42827,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
-        <f t="shared" ref="A10:A21" si="6">A9+1</f>
+        <f t="shared" ref="A10:A21" si="5">A9+1</f>
         <v>2019</v>
       </c>
       <c r="E10" s="497">
@@ -42363,26 +42835,26 @@
         <v>28.8</v>
       </c>
       <c r="F10" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G10" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G10" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H10" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H10" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I10" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J10" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K10" s="91">
-        <f t="shared" ref="K10:K21" si="7">F10*1000</f>
+        <f t="shared" ref="K10:K21" si="6">F10*1000</f>
         <v>144</v>
       </c>
       <c r="L10">
@@ -42392,7 +42864,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
       <c r="E11" s="497">
@@ -42400,26 +42872,26 @@
         <v>28.8</v>
       </c>
       <c r="F11" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G11" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G11" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H11" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H11" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I11" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J11" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K11" s="91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="L11">
@@ -42429,7 +42901,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
       <c r="E12" s="497">
@@ -42437,36 +42909,36 @@
         <v>28.8</v>
       </c>
       <c r="F12" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G12" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G12" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H12" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H12" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I12" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J12" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K12" s="91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="L12" s="91">
-        <f t="shared" ref="L12:L21" si="8">K12+L11</f>
+        <f t="shared" ref="L12:L21" si="7">K12+L11</f>
         <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2022</v>
       </c>
       <c r="E13" s="497">
@@ -42474,36 +42946,36 @@
         <v>28.8</v>
       </c>
       <c r="F13" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G13" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G13" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H13" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H13" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I13" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J13" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K13" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L13" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L13" s="91">
-        <f t="shared" si="8"/>
         <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2023</v>
       </c>
       <c r="E14" s="497">
@@ -42511,36 +42983,36 @@
         <v>28.8</v>
       </c>
       <c r="F14" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G14" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G14" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H14" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H14" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I14" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J14" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K14" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L14" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L14" s="91">
-        <f t="shared" si="8"/>
         <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2024</v>
       </c>
       <c r="E15" s="497">
@@ -42548,36 +43020,36 @@
         <v>28.8</v>
       </c>
       <c r="F15" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G15" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G15" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H15" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H15" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I15" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J15" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K15" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L15" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L15" s="91">
-        <f t="shared" si="8"/>
         <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2025</v>
       </c>
       <c r="E16" s="497">
@@ -42585,36 +43057,36 @@
         <v>28.8</v>
       </c>
       <c r="F16" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G16" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G16" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H16" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H16" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I16" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J16" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K16" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L16" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L16" s="91">
-        <f t="shared" si="8"/>
         <v>1008</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2026</v>
       </c>
       <c r="E17" s="497">
@@ -42622,36 +43094,36 @@
         <v>28.8</v>
       </c>
       <c r="F17" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G17" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G17" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H17" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H17" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I17" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J17" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K17" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L17" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L17" s="91">
-        <f t="shared" si="8"/>
         <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2027</v>
       </c>
       <c r="E18" s="497">
@@ -42659,36 +43131,36 @@
         <v>28.8</v>
       </c>
       <c r="F18" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G18" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G18" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H18" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H18" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I18" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J18" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K18" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L18" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L18" s="91">
-        <f t="shared" si="8"/>
         <v>1296</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2028</v>
       </c>
       <c r="E19" s="497">
@@ -42696,36 +43168,36 @@
         <v>28.8</v>
       </c>
       <c r="F19" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G19" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G19" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H19" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H19" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I19" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J19" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K19" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L19" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L19" s="91">
-        <f t="shared" si="8"/>
         <v>1440</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2029</v>
       </c>
       <c r="E20" s="497">
@@ -42733,36 +43205,36 @@
         <v>28.8</v>
       </c>
       <c r="F20" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G20" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G20" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H20" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H20" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I20" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J20" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K20" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L20" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L20" s="91">
-        <f t="shared" si="8"/>
         <v>1584</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2030</v>
       </c>
       <c r="E21" s="497">
@@ -42770,30 +43242,30 @@
         <v>28.8</v>
       </c>
       <c r="F21" s="496">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G21" s="109">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G21" s="109">
+        <v>1752</v>
+      </c>
+      <c r="H21" s="109">
         <f t="shared" si="3"/>
-        <v>1752</v>
-      </c>
-      <c r="H21" s="109">
-        <f t="shared" si="4"/>
         <v>252.28799999999998</v>
       </c>
       <c r="I21" s="118">
         <v>0.86199999999999999</v>
       </c>
       <c r="J21" s="495">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>217.47225599999999</v>
       </c>
       <c r="K21" s="91">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="L21" s="91">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="L21" s="91">
-        <f t="shared" si="8"/>
         <v>1728</v>
       </c>
     </row>
@@ -42815,8 +43287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43281,7 +43753,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43418,10 +43890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43615,6 +44087,10 @@
         <f t="shared" ref="N7:N13" si="0">M7/1000</f>
         <v>3.8010000000000002</v>
       </c>
+      <c r="O7" s="590">
+        <f>N7-N6</f>
+        <v>2.0110000000000001</v>
+      </c>
       <c r="P7" s="588">
         <v>2011</v>
       </c>
@@ -46156,7 +46632,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="415">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -46184,7 +46660,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="98" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="415">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -46212,7 +46688,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="415">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -46240,7 +46716,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="415">
         <f t="shared" si="28"/>
         <v>2022</v>
@@ -46268,7 +46744,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="415">
         <f t="shared" si="28"/>
         <v>2023</v>
@@ -46296,7 +46772,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="415">
         <f t="shared" si="28"/>
         <v>2024</v>
@@ -46324,7 +46800,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="103" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="415">
         <f t="shared" si="28"/>
         <v>2025</v>
@@ -46352,7 +46828,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="415">
         <f t="shared" si="28"/>
         <v>2026</v>
@@ -46380,7 +46856,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="415">
         <f t="shared" si="28"/>
         <v>2027</v>
@@ -46408,7 +46884,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="106" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="415">
         <f t="shared" si="28"/>
         <v>2028</v>
@@ -46436,7 +46912,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="415">
         <f t="shared" si="28"/>
         <v>2029</v>
@@ -46463,7 +46939,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="415">
         <f t="shared" si="28"/>
         <v>2030</v>
@@ -46488,6 +46964,77 @@
       <c r="J108" s="465">
         <f t="shared" ref="J108" si="32">H109*I108</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G109" s="91">
+        <f>0.7*8760</f>
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C111" s="91" t="s">
+        <v>495</v>
+      </c>
+      <c r="D111" s="91">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E111" s="91">
+        <v>1E-4</v>
+      </c>
+      <c r="F111" s="91">
+        <v>0</v>
+      </c>
+      <c r="G111" s="91">
+        <v>8</v>
+      </c>
+      <c r="H111" s="91">
+        <v>0</v>
+      </c>
+      <c r="I111" s="91">
+        <v>8</v>
+      </c>
+      <c r="J111" s="91">
+        <v>0.63</v>
+      </c>
+      <c r="K111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="L111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="M111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="N111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="O111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="P111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="Q111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="R111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="S111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="T111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="U111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="V111" s="91">
+        <v>8.153946510110895E-3</v>
+      </c>
+      <c r="W111" s="91">
+        <v>8.153946510110895E-3</v>
       </c>
     </row>
   </sheetData>
